--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -46,10 +46,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +445,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
       </c>
@@ -450,6 +456,23 @@
       </c>
       <c r="D2" s="1" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,12 +49,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +451,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -459,17 +465,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2023</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2024</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -439,39 +439,39 @@
           <t>frank</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>jill</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2023</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>jill</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2024</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">

--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>frank</t>
+          <t>Yu Qiao</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Luc Van Gool</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lei Zhang</t>
         </is>
       </c>
     </row>
@@ -445,33 +455,41 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2023</v>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>25</v>
+      </c>
       <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>jill</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2024</v>
       </c>
+      <c r="B4" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="D4" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -480,6 +498,15 @@
           <t>Total</t>
         </is>
       </c>
+      <c r="B5" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
